--- a/public/reports/sales_report.xlsx
+++ b/public/reports/sales_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Order ID</t>
   </si>
@@ -41,85 +41,91 @@
     <t>Status</t>
   </si>
   <si>
-    <t>ORD-1742373479168-A50175D6</t>
-  </si>
-  <si>
-    <t>19/3/2025</t>
+    <t>ORD-1743445895249-982CB15A</t>
+  </si>
+  <si>
+    <t>1/4/2025</t>
+  </si>
+  <si>
+    <t>swapna</t>
+  </si>
+  <si>
+    <t>braceletbeads</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>ORD-1743955960369-11D73BFE</t>
+  </si>
+  <si>
+    <t>6/4/2025</t>
+  </si>
+  <si>
+    <t>Ranjith p</t>
+  </si>
+  <si>
+    <t>ORD-1743968884319-71DA3635</t>
+  </si>
+  <si>
+    <t>7/4/2025</t>
+  </si>
+  <si>
+    <t>ORD-1744015877057-BEE68BE7</t>
+  </si>
+  <si>
+    <t>Drop earring</t>
+  </si>
+  <si>
+    <t>ORD-1744016391034-FE2727BD</t>
+  </si>
+  <si>
+    <t>braceletbronze</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>ORD-1744017438746-26A792FF</t>
+  </si>
+  <si>
+    <t>pppk neckpiece</t>
+  </si>
+  <si>
+    <t>ORD-1744017944780-27ECA742</t>
+  </si>
+  <si>
+    <t>Ritz earring</t>
+  </si>
+  <si>
+    <t>ORD-1744041056499-EAD741F3</t>
   </si>
   <si>
     <t>Sruthi KV</t>
   </si>
   <si>
-    <t>pppk neckpiece</t>
-  </si>
-  <si>
-    <t>delivered</t>
+    <t>ORD-1744041716970-EAB69332</t>
+  </si>
+  <si>
+    <t>fairy Anklet</t>
+  </si>
+  <si>
+    <t>ORD-1744041856068-44CB92DF</t>
+  </si>
+  <si>
+    <t>ORD-1744046396593-D3414290</t>
+  </si>
+  <si>
+    <t>TimaaNeckpiece</t>
+  </si>
+  <si>
+    <t>ORD-1744046580466-5E37C706</t>
   </si>
   <si>
     <t>romeoNeckpiece</t>
   </si>
   <si>
-    <t>ORD-1742461265668-AF55EFBC</t>
-  </si>
-  <si>
-    <t>20/3/2025</t>
-  </si>
-  <si>
-    <t>braceletbeads</t>
-  </si>
-  <si>
-    <t>ORD-1742662524093-2946E809</t>
-  </si>
-  <si>
-    <t>22/3/2025</t>
-  </si>
-  <si>
-    <t>Shan earring</t>
-  </si>
-  <si>
-    <t>ORD-1742811922404-A883B221</t>
-  </si>
-  <si>
-    <t>24/3/2025</t>
-  </si>
-  <si>
-    <t>Ranjith p</t>
-  </si>
-  <si>
-    <t>Rock style anklet</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>TimaaNeckpiece</t>
-  </si>
-  <si>
-    <t>ORD-1742893554247-B52227E7</t>
-  </si>
-  <si>
-    <t>25/3/2025</t>
-  </si>
-  <si>
-    <t>ORD-1743095778139-DCC115CC</t>
-  </si>
-  <si>
-    <t>27/3/2025</t>
-  </si>
-  <si>
-    <t>swapna</t>
-  </si>
-  <si>
-    <t>bracelet vibe</t>
-  </si>
-  <si>
-    <t>ORD-1743098987725-E38B4919</t>
-  </si>
-  <si>
-    <t>Geet neckpiece</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>ORD-1744046810032-90DAB13F</t>
   </si>
   <si>
     <t>Total</t>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -574,16 +580,16 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="G2">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -591,28 +597,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2300</v>
+        <v>1100</v>
       </c>
       <c r="G3">
-        <v>2070</v>
+        <v>1100</v>
       </c>
       <c r="H3">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -620,16 +626,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -649,10 +655,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -664,10 +670,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>598.5</v>
+        <v>456</v>
       </c>
       <c r="G5">
-        <v>598.5</v>
+        <v>456</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -681,51 +687,51 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1200</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>600</v>
-      </c>
-      <c r="G6">
-        <v>600</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="G7">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -736,25 +742,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1100</v>
+        <v>427.5</v>
       </c>
       <c r="G8">
-        <v>1100</v>
+        <v>427.5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -765,74 +771,190 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="G9">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>590</v>
+      </c>
+      <c r="G10">
+        <v>590</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>427.5</v>
+      </c>
+      <c r="G11">
+        <v>427.5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1500</v>
-      </c>
-      <c r="G10">
-        <v>1500</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1450</v>
+      </c>
+      <c r="G12">
+        <v>1450</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="1">
-        <v>12298.5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11768.5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>530</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2300</v>
+      </c>
+      <c r="G13">
+        <v>2300</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2300</v>
+      </c>
+      <c r="G14">
+        <v>2300</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14551</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14551</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -855,42 +977,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>9548.5</v>
+        <v>13351</v>
       </c>
       <c r="C2">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9018.5</v>
+        <v>13351</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="F2">
-        <v>9418.5</v>
+        <v>14551</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/sales_report.xlsx
+++ b/public/reports/sales_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Order ID</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>ORD-1744046810032-90DAB13F</t>
+  </si>
+  <si>
+    <t>ORD-1744097956152-48AA1463</t>
+  </si>
+  <si>
+    <t>8/4/2025</t>
+  </si>
+  <si>
+    <t>ORD-1744099851477-A330AFA5</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>ORD-1744100103653-1DD8A108</t>
   </si>
   <si>
     <t>Total</t>
@@ -527,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -943,17 +958,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1">
-        <v>14551</v>
-      </c>
-      <c r="G16" s="1">
-        <v>14551</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>1200</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1200</v>
+      </c>
+      <c r="G16">
+        <v>1200</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2300</v>
+      </c>
+      <c r="G17">
+        <v>2300</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1">
+        <v>19251</v>
+      </c>
+      <c r="G19" s="1">
+        <v>19251</v>
+      </c>
+      <c r="H19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -977,42 +1079,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>13351</v>
+        <v>14551</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13351</v>
+        <v>14551</v>
       </c>
       <c r="E2">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F2">
-        <v>14551</v>
+        <v>15851</v>
       </c>
     </row>
   </sheetData>
